--- a/results.xlsx
+++ b/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="22">
   <si>
     <t xml:space="preserve">corpus</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t xml:space="preserve">en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNEC-DTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cz</t>
   </si>
 </sst>
 </file>
@@ -95,6 +101,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -180,13 +187,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.1"/>
@@ -628,6 +635,144 @@
       </c>
       <c r="G19" s="1" t="n">
         <v>0.950365759081096</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0.852917382950753</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0.999762934866354</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0.0676282051282051</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>0.920520586068593</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0.745454545454545</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0.061377245508982</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0.999275549805951</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>0.113416320885201</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0.150963597430407</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0.999003095650349</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0.257769652650823</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0.852917382950753</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0.999762934866354</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0.0676282051282051</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0.920520586068593</v>
       </c>
     </row>
   </sheetData>
